--- a/InventoryTracker-WebApp/ExcelFiles/Entity_Template.xlsx
+++ b/InventoryTracker-WebApp/ExcelFiles/Entity_Template.xlsx
@@ -25,7 +25,7 @@
     <t>DataType</t>
   </si>
   <si>
-    <t>Seqance</t>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +413,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
